--- a/cars.xlsx
+++ b/cars.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,42 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>titles</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>prices</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>brands</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>models</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cities</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>areas</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>car_links</t>
         </is>
       </c>
     </row>
@@ -451,12 +481,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jac</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>GE3</t>
+          <t>فورد فوكس 2013 بحالة الوكالة للبيع المستعجل</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12500</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>فورد</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>فوكس</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>عمان</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ماركا </t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://jo.opensooq.com/ar/search/195106459/%D9%81%D9%88%D8%B1%D8%AF-%D9%81%D9%88%D9%83%D8%B3-2013-%D8%A8%D8%AD%D8%A7%D9%84%D8%A9-%D8%A7%D9%84%D9%88%D9%83%D8%A7%D9%84%D8%A9-%D9%84%D9%84%D8%A8%D9%8A%D8%B9-%D8%A7%D9%84%D9%85%D8%B3%D8%AA%D8%B9%D8%AC%D9%84</t>
         </is>
       </c>
     </row>
@@ -466,12 +524,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nissan</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Leaf</t>
+          <t>فورد فوكس كهرباء 2013 للبيع</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10700</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>فورد</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>فوكس</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>عمان</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">سحاب </t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://jo.opensooq.com/ar/search/194934631/%D9%81%D9%88%D8%B1%D8%AF-%D9%81%D9%88%D9%83%D8%B3-%D9%83%D9%87%D8%B1%D8%A8%D8%A7%D8%A1-2013-%D9%84%D9%84%D8%A8%D9%8A%D8%B9</t>
         </is>
       </c>
     </row>
@@ -481,12 +567,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fiat</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>500e</t>
+          <t>فورد فوكس كهرباء Ford focus Electric</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>فورد</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>فوكس</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>عمان</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">خلدا </t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://jo.opensooq.com/ar/search/195036709/%D9%81%D9%88%D8%B1%D8%AF-%D9%81%D9%88%D9%83%D8%B3-%D9%83%D9%87%D8%B1%D8%A8%D8%A7%D8%A1-ford-focus-electric</t>
         </is>
       </c>
     </row>
@@ -496,12 +610,255 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tesla</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>فورد فوكس 2013 اليكتريك للبيع</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>فورد</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>فوكس</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>عمان</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">طريق المطار - جسر ديونز </t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://jo.opensooq.com/ar/search/194948703/%D9%81%D9%88%D8%B1%D8%AF-%D9%81%D9%88%D9%83%D8%B3-2013-%D8%A7%D9%84%D9%8A%D9%83%D8%AA%D8%B1%D9%8A%D9%83-%D9%84%D9%84%D8%A8%D9%8A%D8%B9</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>فورد فوكس 2013 كهرباء فحص كامل بحاله ممتازة</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10250</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>فورد</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>فوكس</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>عمان</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">صويلح </t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://jo.opensooq.com/ar/search/194390515/%D9%81%D9%88%D8%B1%D8%AF-%D9%81%D9%88%D9%83%D8%B3-2013-%D9%83%D9%87%D8%B1%D8%A8%D8%A7%D8%A1-%D9%81%D8%AD%D8%B5-%D9%83%D8%A7%D9%85%D9%84-%D8%A8%D8%AD%D8%A7%D9%84%D9%87-%D9%85%D9%85%D8%AA%D8%A7%D8%B2%D8%A9</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>فورد فوكس كهرباء 2013</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10250</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>فورد</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>فوكس</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>عمان</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الجبيهة </t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://jo.opensooq.com/ar/search/193094231/%D9%81%D9%88%D8%B1%D8%AF-%D9%81%D9%88%D9%83%D8%B3-%D9%83%D9%87%D8%B1%D8%A8%D8%A7%D8%A1-2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>فورد فوكس 2013 كهرباء للبيع او للبدل</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10200</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>فورد</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>فوكس</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>عمان</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">عرجان </t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://jo.opensooq.com/ar/search/192595957/%D9%81%D9%88%D8%B1%D8%AF-%D9%81%D9%88%D9%83%D8%B3-2013-%D9%83%D9%87%D8%B1%D8%A8%D8%A7%D8%A1-%D9%84%D9%84%D8%A8%D9%8A%D8%B9-%D8%A7%D9%88-%D9%84%D9%84%D8%A8%D8%AF%D9%84</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>فورد فوكس كهرباء بحالة ممتازه 2013 للبيع بسعر حرق</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>فورد</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>فوكس</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>عمان</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الجندويل </t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://jo.opensooq.com/ar/search/192480493/%D9%81%D9%88%D8%B1%D8%AF-%D9%81%D9%88%D9%83%D8%B3-%D9%83%D9%87%D8%B1%D8%A8%D8%A7%D8%A1-%D8%A8%D8%AD%D8%A7%D9%84%D8%A9-%D9%85%D9%85%D8%AA%D8%A7%D8%B2%D9%87-2013-%D9%84%D9%84%D8%A8%D9%8A%D8%B9-%D8%A8%D8%B3%D8%B9%D8%B1-%D8%AD%D8%B1%D9%82</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>فورد فوكس كهرباء 2013</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>11000</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>فورد</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>فوكس</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>السلط</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">البلقاء </t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://jo.opensooq.com/ar/search/194399877/%D9%81%D9%88%D8%B1%D8%AF-%D9%81%D9%88%D9%83%D8%B3-%D9%83%D9%87%D8%B1%D8%A8%D8%A7%D8%A1-2013</t>
         </is>
       </c>
     </row>
